--- a/exsample.XLSX
+++ b/exsample.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonProject\sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC858B75-ED6C-4E4B-B62A-7A3D02937B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09D6FB-0553-4974-9072-DF1193662610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1905" windowWidth="21600" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23475" yWindow="1185" windowWidth="21600" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,99 +351,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>0.48</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E1">
-        <v>45</v>
+        <v>0.62</v>
       </c>
       <c r="F1">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="G1">
-        <v>9</v>
-      </c>
-      <c r="H1">
-        <v>14</v>
-      </c>
-      <c r="I1">
-        <v>25</v>
-      </c>
-      <c r="J1">
-        <v>33</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1.6359699999999999</v>
       </c>
       <c r="C2">
-        <v>2.2000000000000002</v>
+        <v>1.73234</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>1.87686</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2.0334500000000002</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2.2284600000000001</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
+        <v>2.3597299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.751</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>